--- a/fuction_ensemble_1/redes-ensemble-s/Teste03/content/results/metrics_4_1.xlsx
+++ b/fuction_ensemble_1/redes-ensemble-s/Teste03/content/results/metrics_4_1.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_24</t>
+          <t>model_4_1_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9994276109311615</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6818956047824121</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9982445253381474</v>
+        <v>-0.1736323453519737</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9988110448173482</v>
+        <v>0.5271837194380506</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9985107631720296</v>
+        <v>0.4376148026036533</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0003397948771828324</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1888405103955305</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001297810282821844</v>
+        <v>0.1573950291641932</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0007701859077434292</v>
+        <v>0.3876705582094994</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001033997769520995</v>
+        <v>0.2725327936868464</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01087845949519014</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01843352590208483</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000371279396003</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01921827926239564</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P2" t="n">
-        <v>137.9743368496353</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3257621665955</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_23</t>
+          <t>model_4_1_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9994157231816255</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6818311652080269</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9982693222005014</v>
+        <v>-0.1736323453519737</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9987348503850128</v>
+        <v>0.5271837194380506</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9984884207156569</v>
+        <v>0.4376148026036533</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0003468519588314284</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1888787645105303</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001279478133891449</v>
+        <v>0.1573950291641932</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0008195434267563353</v>
+        <v>0.3876705582094994</v>
       </c>
       <c r="K3" t="n">
-        <v>0.001049510446632593</v>
+        <v>0.2725327936868464</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01105666206015286</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01862396195312449</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000378990368675</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01941682257038503</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P3" t="n">
-        <v>137.9332250013206</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q3" t="n">
-        <v>212.2846503182808</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_22</t>
+          <t>model_4_1_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9994009110841091</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6817555664164674</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9982955513563267</v>
+        <v>-0.1736323453519737</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9986450219568039</v>
+        <v>0.5271837194380506</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9984604801568211</v>
+        <v>0.4376148026036533</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0003556450597664543</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1889236432188978</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001260087100298309</v>
+        <v>0.1573950291641932</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0008777328274424916</v>
+        <v>0.3876705582094994</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0010689099638704</v>
+        <v>0.2725327936868464</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01125553694520911</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01885855402109224</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000388598215713</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0196614017083587</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P4" t="n">
-        <v>137.8831546951967</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q4" t="n">
-        <v>212.234580012157</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_21</t>
+          <t>model_4_1_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9993824687805396</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6816670120268816</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D5" t="n">
-        <v>0.998322916072431</v>
+        <v>-0.1736323453519737</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9985389529726161</v>
+        <v>0.5271837194380506</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9984255685504475</v>
+        <v>0.4376148026036533</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0003665932078313799</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1889762129299063</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001239856554840513</v>
+        <v>0.1573950291641932</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0009464425972152447</v>
+        <v>0.3876705582094994</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001093149576027879</v>
+        <v>0.2725327936868464</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01147724916507375</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01914662392776805</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000400560791001</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01996173534734861</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P5" t="n">
-        <v>137.8225155003904</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.1739408173506</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_20</t>
+          <t>model_4_1_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9993594851949882</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6815626196125424</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9983511051479154</v>
+        <v>-0.1736323453519737</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9984131721064616</v>
+        <v>0.5271837194380506</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9983818998666832</v>
+        <v>0.4376148026036533</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0003802372570538757</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1890381847765755</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001219016566191355</v>
+        <v>0.1573950291641932</v>
       </c>
       <c r="J6" t="n">
-        <v>0.001027921404818244</v>
+        <v>0.3876705582094994</v>
       </c>
       <c r="K6" t="n">
-        <v>0.001123469348385194</v>
+        <v>0.2725327936868464</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0117250540089203</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01949967325505419</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N6" t="n">
-        <v>1.00041546906271</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02032981471541018</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P6" t="n">
-        <v>137.7494302788156</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q6" t="n">
-        <v>212.1008555957758</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_19</t>
+          <t>model_4_1_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9993308943476514</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6814398166061708</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9983797512496573</v>
+        <v>-0.1736323453519737</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9982636868475371</v>
+        <v>0.5271837194380506</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9983274176339897</v>
+        <v>0.4376148026036533</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0003972100190932957</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1891110859459714</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001197838701189265</v>
+        <v>0.1573950291641932</v>
       </c>
       <c r="J7" t="n">
-        <v>0.001124755534076448</v>
+        <v>0.3876705582094994</v>
       </c>
       <c r="K7" t="n">
-        <v>0.001161297117632857</v>
+        <v>0.2725327936868464</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01200166743944132</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0199301284264125</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000434014477199</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02077859525457827</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P7" t="n">
-        <v>137.6620908036161</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q7" t="n">
-        <v>212.0135161205763</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_18</t>
+          <t>model_4_1_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9992953255793199</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C8" t="n">
-        <v>0.681294742455808</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9984082055517879</v>
+        <v>-0.1736323453519737</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9980854742737891</v>
+        <v>0.5271837194380506</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9982594317020462</v>
+        <v>0.4376148026036533</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0004183251764657105</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1891972082285037</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001176802632313905</v>
+        <v>0.1573950291641932</v>
       </c>
       <c r="J8" t="n">
-        <v>0.001240198752530796</v>
+        <v>0.3876705582094994</v>
       </c>
       <c r="K8" t="n">
-        <v>0.00120850069242235</v>
+        <v>0.2725327936868464</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01231102256174351</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02045299920465726</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000457086110711</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02132372572434462</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P8" t="n">
-        <v>137.5585029874899</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q8" t="n">
-        <v>211.9099283044501</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_17</t>
+          <t>model_4_1_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9992510560966948</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C9" t="n">
-        <v>0.681123281555153</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9984356173502699</v>
+        <v>-0.1736323453519737</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9978722421658602</v>
+        <v>0.5271837194380506</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9981745596989408</v>
+        <v>0.4376148026036533</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0004446054536939584</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1892989948258578</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001156537279179715</v>
+        <v>0.1573950291641932</v>
       </c>
       <c r="J9" t="n">
-        <v>0.001378327057955217</v>
+        <v>0.3876705582094994</v>
       </c>
       <c r="K9" t="n">
-        <v>0.00126742850044968</v>
+        <v>0.2725327936868464</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01265692964488031</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02108566939164983</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000485801450792</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0219833299910053</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P9" t="n">
-        <v>137.4366465799826</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q9" t="n">
-        <v>211.7880718969428</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_16</t>
+          <t>model_4_1_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9991959776957627</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6809204699504838</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D10" t="n">
-        <v>0.998460877105252</v>
+        <v>-0.1736323453519737</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9976163846411663</v>
+        <v>0.5271837194380506</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9980686469824294</v>
+        <v>0.4376148026036533</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0004773023717503497</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1894193925553946</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001137862916929024</v>
+        <v>0.1573950291641932</v>
       </c>
       <c r="J10" t="n">
-        <v>0.001544067417881841</v>
+        <v>0.3876705582094994</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001340965167405433</v>
+        <v>0.2725327936868464</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01304391884392993</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02184725089685999</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000521527981127</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02277733359758331</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P10" t="n">
-        <v>137.2947207297341</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q10" t="n">
-        <v>211.6461460466943</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_15</t>
+          <t>model_4_1_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9991275486527357</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6806807833012388</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9984824826148765</v>
+        <v>-0.1736323453519737</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9973089902407554</v>
+        <v>0.5271837194380506</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9979367525179892</v>
+        <v>0.4376148026036533</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0005179248076719005</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1895616809043105</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001121890113011342</v>
+        <v>0.1573950291641932</v>
       </c>
       <c r="J11" t="n">
-        <v>0.001743192531065412</v>
+        <v>0.3876705582094994</v>
       </c>
       <c r="K11" t="n">
-        <v>0.001432541322038377</v>
+        <v>0.2725327936868464</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01347754365154578</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02275796141291879</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000565914387415</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02372681494574139</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P11" t="n">
-        <v>137.1313609703518</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q11" t="n">
-        <v>211.4827862873121</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_14</t>
+          <t>model_4_1_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9990425260098149</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6803973191152839</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9984986208436448</v>
+        <v>-0.1736323453519737</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9969384353305807</v>
+        <v>0.5271837194380506</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9977724886609057</v>
+        <v>0.4376148026036533</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0005683979212966332</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1897299574901086</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I12" t="n">
-        <v>0.001109959232038078</v>
+        <v>0.1573950291641932</v>
       </c>
       <c r="J12" t="n">
-        <v>0.001983231999353135</v>
+        <v>0.3876705582094994</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001546591994602424</v>
+        <v>0.2725327936868464</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01396319077580082</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M12" t="n">
-        <v>0.02384109731737684</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N12" t="n">
-        <v>1.00062106420985</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O12" t="n">
-        <v>0.02485606218805264</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P12" t="n">
-        <v>136.9453776377232</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q12" t="n">
-        <v>211.2968029546835</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_13</t>
+          <t>model_4_1_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9989369869442302</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6800630305657425</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9985068311910403</v>
+        <v>-0.1736323453519737</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9964910812145599</v>
+        <v>0.5271837194380506</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9975681674198184</v>
+        <v>0.4376148026036533</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0006310504696779909</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1899284056136298</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001103889378962446</v>
+        <v>0.1573950291641932</v>
       </c>
       <c r="J13" t="n">
-        <v>0.00227302074913746</v>
+        <v>0.3876705582094994</v>
       </c>
       <c r="K13" t="n">
-        <v>0.001688455064049953</v>
+        <v>0.2725327936868464</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0145069997620586</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M13" t="n">
-        <v>0.02512071793715281</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000689521982121</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O13" t="n">
-        <v>0.02619015890679233</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P13" t="n">
-        <v>136.7362494299595</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q13" t="n">
-        <v>211.0876747469198</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9988059481452028</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6796680923392735</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9985039136460618</v>
+        <v>-0.1736323453519737</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9959494521365981</v>
+        <v>0.5271837194380506</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9973139464510605</v>
+        <v>0.4376148026036533</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00070884076136195</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1901628580053049</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001106046299797577</v>
+        <v>0.1573950291641932</v>
       </c>
       <c r="J14" t="n">
-        <v>0.002623879292131332</v>
+        <v>0.3876705582094994</v>
       </c>
       <c r="K14" t="n">
-        <v>0.001864964205996984</v>
+        <v>0.2725327936868464</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0151167270431637</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M14" t="n">
-        <v>0.02662406357718427</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000774520122031</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O14" t="n">
-        <v>0.02775750508307442</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P14" t="n">
-        <v>136.5037593055241</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q14" t="n">
-        <v>210.8551846224844</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_11</t>
+          <t>model_4_1_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9986436543630841</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6792046154372531</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9984859784083154</v>
+        <v>-0.1736323453519737</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9952941453907617</v>
+        <v>0.5271837194380506</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9969987045283092</v>
+        <v>0.4376148026036533</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0008051853611539733</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1904379979155039</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I15" t="n">
-        <v>0.001119305697086509</v>
+        <v>0.1573950291641932</v>
       </c>
       <c r="J15" t="n">
-        <v>0.003048376386939159</v>
+        <v>0.3876705582094994</v>
       </c>
       <c r="K15" t="n">
-        <v>0.002083841042012834</v>
+        <v>0.2725327936868464</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01579969425644508</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M15" t="n">
-        <v>0.02837578829132282</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000879791764486</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0295838043448639</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P15" t="n">
-        <v>136.2488760894979</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.6003014064581</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_10</t>
+          <t>model_4_1_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9984425995805772</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6786609098132415</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D16" t="n">
-        <v>0.998448114785864</v>
+        <v>-0.1736323453519737</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9944991339251952</v>
+        <v>0.5271837194380506</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9966076805362772</v>
+        <v>0.4376148026036533</v>
       </c>
       <c r="G16" t="n">
-        <v>0.000924540165164424</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1907607650607772</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001147298011433198</v>
+        <v>0.1573950291641932</v>
       </c>
       <c r="J16" t="n">
-        <v>0.003563371936147398</v>
+        <v>0.3876705582094994</v>
       </c>
       <c r="K16" t="n">
-        <v>0.002355334419020732</v>
+        <v>0.2725327936868464</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01656487834904779</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M16" t="n">
-        <v>0.03040625207361841</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N16" t="n">
-        <v>1.001010205677463</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O16" t="n">
-        <v>0.03170070917401129</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P16" t="n">
-        <v>135.972428125595</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q16" t="n">
-        <v>210.3238534425552</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_9</t>
+          <t>model_4_1_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9981944541607947</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6780272939014769</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9983843872788454</v>
+        <v>-0.1736323453519737</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9935373502928327</v>
+        <v>0.5271837194380506</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9961250873521622</v>
+        <v>0.4376148026036533</v>
       </c>
       <c r="G17" t="n">
-        <v>0.001071850005671358</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1911369068367828</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001194411316856931</v>
+        <v>0.1573950291641932</v>
       </c>
       <c r="J17" t="n">
-        <v>0.004186399793506677</v>
+        <v>0.3876705582094994</v>
       </c>
       <c r="K17" t="n">
-        <v>0.002690405555181803</v>
+        <v>0.2725327936868464</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01742130067848802</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M17" t="n">
-        <v>0.03273912041688595</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N17" t="n">
-        <v>1.001171164868674</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O17" t="n">
-        <v>0.03413289255235493</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P17" t="n">
-        <v>135.6767382924119</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q17" t="n">
-        <v>210.0281636093721</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_8</t>
+          <t>model_4_1_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.997888078150573</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6772900361199524</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9982869123100517</v>
+        <v>-0.1736323453519737</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9923711339098273</v>
+        <v>0.5271837194380506</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9955291618631643</v>
+        <v>0.4376148026036533</v>
       </c>
       <c r="G18" t="n">
-        <v>0.001253728040093439</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1915745749037736</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I18" t="n">
-        <v>0.001266473887492174</v>
+        <v>0.1573950291641932</v>
       </c>
       <c r="J18" t="n">
-        <v>0.004941855875179107</v>
+        <v>0.3876705582094994</v>
       </c>
       <c r="K18" t="n">
-        <v>0.00310416488133564</v>
+        <v>0.2725327936868464</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01837978735831565</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M18" t="n">
-        <v>0.03540802225617012</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N18" t="n">
-        <v>1.001369895253682</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O18" t="n">
-        <v>0.03691541506832588</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P18" t="n">
-        <v>135.3632674684413</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q18" t="n">
-        <v>209.7146927854015</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_7</t>
+          <t>model_4_1_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9975111932000162</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6764377202324083</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9981467844201296</v>
+        <v>-0.1736323453519737</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9909614350611112</v>
+        <v>0.5271837194380506</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9947969457007335</v>
+        <v>0.4376148026036533</v>
       </c>
       <c r="G19" t="n">
-        <v>0.001477463227326113</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H19" t="n">
-        <v>0.192080546432749</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I19" t="n">
-        <v>0.001370069467880166</v>
+        <v>0.1573950291641932</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005855035954029222</v>
+        <v>0.3876705582094994</v>
       </c>
       <c r="K19" t="n">
-        <v>0.003612552710954694</v>
+        <v>0.2725327936868464</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01945093261227222</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M19" t="n">
-        <v>0.03843778385034852</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N19" t="n">
-        <v>1.001614361167557</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O19" t="n">
-        <v>0.04007415988603956</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P19" t="n">
-        <v>135.0348573948726</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q19" t="n">
-        <v>209.3862827118328</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_6</t>
+          <t>model_4_1_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9970476927836973</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6754539451253967</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9979521348981192</v>
+        <v>-0.1736323453519737</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9892556012931897</v>
+        <v>0.5271837194380506</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9938975581170185</v>
+        <v>0.4376148026036533</v>
       </c>
       <c r="G20" t="n">
-        <v>0.001752617096628458</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1926645578331431</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I20" t="n">
-        <v>0.001513972513991313</v>
+        <v>0.1573950291641932</v>
       </c>
       <c r="J20" t="n">
-        <v>0.006960047436527439</v>
+        <v>0.3876705582094994</v>
       </c>
       <c r="K20" t="n">
-        <v>0.004237009975259376</v>
+        <v>0.2725327936868464</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02064624600948489</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0418642699282868</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N20" t="n">
-        <v>1.00191501008625</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O20" t="n">
-        <v>0.04364651857011968</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P20" t="n">
-        <v>134.6932902487626</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q20" t="n">
-        <v>209.0447155657228</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_5</t>
+          <t>model_4_1_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9964800426040428</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6743252079682986</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9976897324280268</v>
+        <v>-0.1736323453519737</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9872003345369488</v>
+        <v>0.5271837194380506</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9927990906507352</v>
+        <v>0.4376148026036533</v>
       </c>
       <c r="G21" t="n">
-        <v>0.002089598764482391</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1933346249685028</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I21" t="n">
-        <v>0.001707964846278464</v>
+        <v>0.1573950291641932</v>
       </c>
       <c r="J21" t="n">
-        <v>0.008291415948484065</v>
+        <v>0.3876705582094994</v>
       </c>
       <c r="K21" t="n">
-        <v>0.004999691161149871</v>
+        <v>0.2725327936868464</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02197813697264861</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M21" t="n">
-        <v>0.04571212929280795</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N21" t="n">
-        <v>1.002283215608188</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O21" t="n">
-        <v>0.04765818927395547</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P21" t="n">
-        <v>134.3415664203045</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q21" t="n">
-        <v>208.6929917372647</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_4</t>
+          <t>model_4_1_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9957852286850761</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6730300393150859</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9973419801254104</v>
+        <v>-0.1736323453519737</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9847234233703551</v>
+        <v>0.5271837194380506</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9914584917703676</v>
+        <v>0.4376148026036533</v>
       </c>
       <c r="G22" t="n">
-        <v>0.002502070321179451</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1941034930294225</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I22" t="n">
-        <v>0.001965055719771462</v>
+        <v>0.1573950291641932</v>
       </c>
       <c r="J22" t="n">
-        <v>0.009895918879358144</v>
+        <v>0.3876705582094994</v>
       </c>
       <c r="K22" t="n">
-        <v>0.005930487543624265</v>
+        <v>0.2725327936868464</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02379021412413117</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M22" t="n">
-        <v>0.05002069892733858</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N22" t="n">
-        <v>1.002733905717788</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O22" t="n">
-        <v>0.05215018363779676</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P22" t="n">
-        <v>133.9812735226908</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q22" t="n">
-        <v>208.332698839651</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_3</t>
+          <t>model_4_1_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9949354095478272</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6715440367941027</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9968869916329753</v>
+        <v>-0.1736323453519737</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9817390486534555</v>
+        <v>0.5271837194380506</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9898240731805962</v>
+        <v>0.4376148026036533</v>
       </c>
       <c r="G23" t="n">
-        <v>0.003006559671325679</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1949856483178446</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I23" t="n">
-        <v>0.002301425567129275</v>
+        <v>0.1573950291641932</v>
       </c>
       <c r="J23" t="n">
-        <v>0.01182914847784914</v>
+        <v>0.3876705582094994</v>
       </c>
       <c r="K23" t="n">
-        <v>0.007065287022489206</v>
+        <v>0.2725327936868464</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02620661999981601</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M23" t="n">
-        <v>0.05483210438534782</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N23" t="n">
-        <v>1.003285139752761</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O23" t="n">
-        <v>0.05716642058713579</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P23" t="n">
-        <v>133.613917640485</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q23" t="n">
-        <v>207.9653429574452</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_2</t>
+          <t>model_4_1_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9938993624906569</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6698430845431107</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9962999366665933</v>
+        <v>-0.1736323453519737</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9781565289359048</v>
+        <v>0.5271837194380506</v>
       </c>
       <c r="F24" t="n">
-        <v>0.987840313327439</v>
+        <v>0.4376148026036533</v>
       </c>
       <c r="G24" t="n">
-        <v>0.003621601959364443</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1959954070513447</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I24" t="n">
-        <v>0.002735431245769047</v>
+        <v>0.1573950291641932</v>
       </c>
       <c r="J24" t="n">
-        <v>0.01414984671856538</v>
+        <v>0.3876705582094994</v>
       </c>
       <c r="K24" t="n">
-        <v>0.008442638982167214</v>
+        <v>0.2725327936868464</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02888182114986082</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M24" t="n">
-        <v>0.06017974708624525</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N24" t="n">
-        <v>1.003957170276331</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O24" t="n">
-        <v>0.06274172350895689</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P24" t="n">
-        <v>133.2416776416418</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q24" t="n">
-        <v>207.5931029586021</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_1</t>
+          <t>model_4_1_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9926379172579419</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6678936826841944</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9955492077500936</v>
+        <v>-0.1736323453519737</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9738612718954583</v>
+        <v>0.5271837194380506</v>
       </c>
       <c r="F25" t="n">
-        <v>0.98543692861414</v>
+        <v>0.4376148026036533</v>
       </c>
       <c r="G25" t="n">
-        <v>0.004370450341100835</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1971526562045731</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I25" t="n">
-        <v>0.003290439944337713</v>
+        <v>0.1573950291641932</v>
       </c>
       <c r="J25" t="n">
-        <v>0.01693224465160525</v>
+        <v>0.3876705582094994</v>
       </c>
       <c r="K25" t="n">
-        <v>0.01011134229797148</v>
+        <v>0.2725327936868464</v>
       </c>
       <c r="L25" t="n">
-        <v>0.03184119302564027</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M25" t="n">
-        <v>0.06610938164210005</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N25" t="n">
-        <v>1.004775405021876</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O25" t="n">
-        <v>0.06892379488389012</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P25" t="n">
-        <v>132.8657784446015</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q25" t="n">
-        <v>207.2172037615617</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_0</t>
+          <t>model_4_1_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9911038651028268</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C26" t="n">
-        <v>0.665655860946371</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9945970808557809</v>
+        <v>-0.1736323453519737</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9687167621230248</v>
+        <v>0.5271837194380506</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9825301558898994</v>
+        <v>0.4376148026036533</v>
       </c>
       <c r="G26" t="n">
-        <v>0.005281129967979776</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1984811238570107</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I26" t="n">
-        <v>0.003994340775743786</v>
+        <v>0.1573950291641932</v>
       </c>
       <c r="J26" t="n">
-        <v>0.02026477474760035</v>
+        <v>0.3876705582094994</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01212955488640535</v>
+        <v>0.2725327936868464</v>
       </c>
       <c r="L26" t="n">
-        <v>0.03511202615327891</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M26" t="n">
-        <v>0.07267138341864544</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N26" t="n">
-        <v>1.005770465879247</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O26" t="n">
-        <v>0.07576515466127937</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P26" t="n">
-        <v>132.4872303901471</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q26" t="n">
-        <v>206.8386557071074</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
   </sheetData>
